--- a/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
+++ b/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\3-CONTRATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB0AED5-CDDF-40AD-A12F-DC672C94445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACA8D4-7926-4E75-9425-6D72C7008E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01262143-0549-49C8-B69B-962DDF4BCAC1}"/>
   </bookViews>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:L348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,7 +4332,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44659</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>44707</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>44721</v>
       </c>
@@ -9684,7 +9684,7 @@
   <autoFilter ref="A3:L205" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DIAZ SARMIENTO"/>
+        <filter val="MURAYARI CUMAPA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
+++ b/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\3-CONTRATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACA8D4-7926-4E75-9425-6D72C7008E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC5D6C-1A72-4120-97BC-353B572144A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01262143-0549-49C8-B69B-962DDF4BCAC1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$3:$L$205</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="378">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -50,12 +50,6 @@
     <t>INICIO</t>
   </si>
   <si>
-    <t>PADILLA</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>DIANA</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VALESKA</t>
-  </si>
-  <si>
     <t>FINAL</t>
   </si>
   <si>
@@ -122,12 +110,6 @@
     <t>DELIA</t>
   </si>
   <si>
-    <t>ATAHUA</t>
-  </si>
-  <si>
-    <t>KAMILA</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
@@ -143,12 +125,6 @@
     <t>ANGGIE</t>
   </si>
   <si>
-    <t>BANCES</t>
-  </si>
-  <si>
-    <t>YANINA</t>
-  </si>
-  <si>
     <t>BARTOLO</t>
   </si>
   <si>
@@ -158,42 +134,18 @@
     <t>YAJAIRA</t>
   </si>
   <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>ANDERSON</t>
-  </si>
-  <si>
     <t>CARRASCO</t>
   </si>
   <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>DANITZA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>TAIPE</t>
-  </si>
-  <si>
-    <t>NOELIA</t>
-  </si>
-  <si>
     <t>VIVANCO</t>
   </si>
   <si>
     <t>LUIS</t>
   </si>
   <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
     <t>ZEVALLOS</t>
   </si>
   <si>
@@ -1155,6 +1107,69 @@
   </si>
   <si>
     <t>ENT</t>
+  </si>
+  <si>
+    <t>ATAHUA LINARES</t>
+  </si>
+  <si>
+    <t>KAMILA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>60075361</t>
+  </si>
+  <si>
+    <t>80302322</t>
+  </si>
+  <si>
+    <t>BANCES CHAPOÑAN</t>
+  </si>
+  <si>
+    <t>YANINA IBONNE</t>
+  </si>
+  <si>
+    <t>71388214</t>
+  </si>
+  <si>
+    <t>CANALES CAJA</t>
+  </si>
+  <si>
+    <t>ANDERSON HONORIO ANGEL</t>
+  </si>
+  <si>
+    <t>DIAZ CORTEZ</t>
+  </si>
+  <si>
+    <t>DANITZA KATHERINE</t>
+  </si>
+  <si>
+    <t>LUNA SOCOLA</t>
+  </si>
+  <si>
+    <t>LUCIA GERALDINE</t>
+  </si>
+  <si>
+    <t>PADILLA RAMIREZ</t>
+  </si>
+  <si>
+    <t>IVY ARACELY</t>
+  </si>
+  <si>
+    <t>TAIPE CONTRERAS</t>
+  </si>
+  <si>
+    <t>NOELIA MELISSA</t>
+  </si>
+  <si>
+    <t>TRUJILLO MAITA</t>
+  </si>
+  <si>
+    <t>VALESKA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>ZAPATA FLORES</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1329,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,8 +1661,8 @@
   </sheetPr>
   <dimension ref="A1:L348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1670,7 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
     <col min="9" max="11" width="8.5703125" style="1" customWidth="1"/>
@@ -1659,7 +1680,7 @@
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1697,31 +1718,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1729,13 +1750,13 @@
         <v>44701</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
@@ -1743,15 +1764,15 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1780,10 @@
         <v>44659</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8">
@@ -1773,13 +1794,13 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1787,10 +1808,10 @@
         <v>44659</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8">
@@ -1801,13 +1822,13 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1815,13 +1836,13 @@
         <v>44701</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8">
@@ -1829,52 +1850,56 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44688</v>
+        <v>44663</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="8">
         <v>44742</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44670</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8">
@@ -1884,10 +1909,10 @@
         <v>44773</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1899,10 +1924,10 @@
         <v>44659</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D10" s="9">
         <v>76081325</v>
@@ -1915,10 +1940,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1929,13 +1954,13 @@
         <v>44701</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="8">
@@ -1943,15 +1968,15 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1959,13 +1984,13 @@
         <v>44707</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E12" s="8">
         <v>44713</v>
@@ -1974,10 +1999,10 @@
         <v>44773</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1989,13 +2014,13 @@
         <v>44701</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8">
@@ -2003,15 +2028,15 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2019,13 +2044,13 @@
         <v>44721</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E14" s="8">
         <v>44713</v>
@@ -2034,7 +2059,7 @@
         <v>44803</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2047,13 +2072,13 @@
         <v>44707</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8">
         <v>44713</v>
@@ -2062,10 +2087,10 @@
         <v>44773</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2077,10 +2102,10 @@
         <v>44659</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8">
@@ -2091,13 +2116,13 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2105,13 +2130,13 @@
         <v>44701</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8">
@@ -2119,15 +2144,15 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2135,10 +2160,10 @@
         <v>44670</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8">
@@ -2148,17 +2173,17 @@
         <v>44773</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -2167,10 +2192,10 @@
         <v>44659</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8">
@@ -2181,24 +2206,24 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44663</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8">
@@ -2208,30 +2233,28 @@
         <v>44742</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44721</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E21" s="8">
         <v>44713</v>
@@ -2240,7 +2263,7 @@
         <v>44803</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -2248,15 +2271,15 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44663</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8">
@@ -2266,24 +2289,24 @@
         <v>44742</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44663</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>39</v>
@@ -2295,15 +2318,15 @@
       <c r="F23" s="8">
         <v>44742</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2311,13 +2334,13 @@
         <v>44659</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E24" s="8">
         <v>44652</v>
@@ -2327,24 +2350,24 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44663</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8">
@@ -2354,16 +2377,14 @@
         <v>44742</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2371,13 +2392,13 @@
         <v>44707</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E26" s="8">
         <v>44713</v>
@@ -2386,25 +2407,25 @@
         <v>44773</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>44663</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8">
@@ -2414,27 +2435,27 @@
         <v>44742</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>319</v>
+        <v>8</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44670</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8">
@@ -2444,10 +2465,10 @@
         <v>44773</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2459,10 +2480,10 @@
         <v>44707</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D29" s="9">
         <v>42268484</v>
@@ -2474,27 +2495,27 @@
         <v>44804</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>44663</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8">
@@ -2505,13 +2526,15 @@
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2519,10 +2542,10 @@
         <v>44707</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D31" s="9">
         <v>76081325</v>
@@ -2534,28 +2557,28 @@
         <v>44804</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>44707</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E32" s="8">
         <v>44713</v>
@@ -2564,25 +2587,25 @@
         <v>44773</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44659</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8">
@@ -2593,25 +2616,25 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>44688</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E34" s="8">
         <v>44682</v>
@@ -2621,22 +2644,22 @@
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>44663</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="8">
@@ -2646,25 +2669,29 @@
         <v>44742</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="K35" s="9"/>
       <c r="L35" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>44663</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="8">
@@ -2674,25 +2701,29 @@
         <v>44742</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>44663</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8">
@@ -2702,16 +2733,16 @@
         <v>44742</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2719,13 +2750,13 @@
         <v>44707</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E38" s="8">
         <v>44713</v>
@@ -2734,10 +2765,10 @@
         <v>44773</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2749,10 +2780,10 @@
         <v>44659</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D39" s="9">
         <v>40399288</v>
@@ -2765,7 +2796,7 @@
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2777,10 +2808,10 @@
         <v>44707</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D40" s="9">
         <v>40399288</v>
@@ -2792,10 +2823,10 @@
         <v>44804</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,10 +2838,10 @@
         <v>44670</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="8">
@@ -2820,14 +2851,14 @@
         <v>44773</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2835,10 +2866,10 @@
         <v>44670</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="8">
@@ -2848,16 +2879,16 @@
         <v>44773</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2865,10 +2896,10 @@
         <v>44707</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D43" s="9">
         <v>48030001</v>
@@ -2880,10 +2911,10 @@
         <v>44804</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2895,13 +2926,13 @@
         <v>44707</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E44" s="8">
         <v>44713</v>
@@ -2910,10 +2941,10 @@
         <v>44773</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2925,13 +2956,13 @@
         <v>44688</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E45" s="8">
         <v>44682</v>
@@ -2941,11 +2972,11 @@
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -2955,10 +2986,10 @@
         <v>44670</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="8">
@@ -2968,14 +2999,14 @@
         <v>44773</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -2985,10 +3016,10 @@
         <v>44670</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="8">
@@ -2998,14 +3029,14 @@
         <v>44773</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3015,10 +3046,10 @@
         <v>44677</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="8">
@@ -3028,14 +3059,14 @@
         <v>44773</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3043,13 +3074,13 @@
         <v>44707</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E49" s="8">
         <v>44713</v>
@@ -3058,10 +3089,10 @@
         <v>44773</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3073,10 +3104,10 @@
         <v>44659</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D50" s="9">
         <v>62034807</v>
@@ -3089,11 +3120,11 @@
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -3103,13 +3134,13 @@
         <v>44659</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E51" s="8">
         <v>44621</v>
@@ -3119,11 +3150,11 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -3133,10 +3164,10 @@
         <v>44677</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="8">
@@ -3146,14 +3177,14 @@
         <v>44773</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3161,13 +3192,13 @@
         <v>44707</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E53" s="8">
         <v>44713</v>
@@ -3176,16 +3207,16 @@
         <v>44773</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3193,10 +3224,10 @@
         <v>44677</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="8">
@@ -3206,14 +3237,14 @@
         <v>44773</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3221,10 +3252,10 @@
         <v>44677</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="8">
@@ -3234,14 +3265,14 @@
         <v>44773</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3249,13 +3280,13 @@
         <v>44707</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E56" s="8">
         <v>44713</v>
@@ -3264,10 +3295,10 @@
         <v>44773</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3279,10 +3310,10 @@
         <v>44677</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="8">
@@ -3292,14 +3323,14 @@
         <v>44773</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3307,10 +3338,10 @@
         <v>44677</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="8">
@@ -3320,14 +3351,14 @@
         <v>44773</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3335,10 +3366,10 @@
         <v>44707</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D59" s="9">
         <v>60638954</v>
@@ -3350,16 +3381,16 @@
         <v>44804</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3367,10 +3398,10 @@
         <v>44688</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="8">
@@ -3380,16 +3411,16 @@
         <v>44773</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="10" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3397,10 +3428,10 @@
         <v>44688</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="8">
@@ -3410,38 +3441,38 @@
         <v>44773</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>44663</v>
+        <v>44688</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>360</v>
+      </c>
       <c r="E62" s="8">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F62" s="8">
         <v>44742</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3453,10 +3484,10 @@
         <v>44688</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D63" s="9">
         <v>43628286</v>
@@ -3468,13 +3499,13 @@
         <v>44773</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -3485,10 +3516,10 @@
         <v>44688</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="8">
@@ -3498,13 +3529,13 @@
         <v>44773</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3515,10 +3546,10 @@
         <v>44688</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="8">
@@ -3528,13 +3559,13 @@
         <v>44773</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -3545,10 +3576,10 @@
         <v>44688</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="8">
@@ -3558,13 +3589,13 @@
         <v>44773</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -3575,10 +3606,10 @@
         <v>44688</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="8">
@@ -3588,13 +3619,13 @@
         <v>44773</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -3605,10 +3636,10 @@
         <v>44688</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="8">
@@ -3618,13 +3649,13 @@
         <v>44773</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -3634,26 +3665,30 @@
       <c r="A69" s="8">
         <v>44663</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="9"/>
+      <c r="B69" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>359</v>
+      </c>
       <c r="E69" s="8">
         <v>44652</v>
       </c>
       <c r="F69" s="8">
         <v>44742</v>
       </c>
-      <c r="G69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H69" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -3663,10 +3698,10 @@
         <v>44688</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="8">
@@ -3676,13 +3711,13 @@
         <v>44773</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -3693,10 +3728,10 @@
         <v>44688</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="8">
@@ -3706,16 +3741,16 @@
         <v>44773</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="10" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3723,10 +3758,10 @@
         <v>44688</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="8">
@@ -3736,13 +3771,13 @@
         <v>44773</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -3753,13 +3788,13 @@
         <v>44721</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C73" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>365</v>
       </c>
       <c r="E73" s="8">
         <v>44713</v>
@@ -3768,7 +3803,7 @@
         <v>44803</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -3781,10 +3816,10 @@
         <v>44688</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="8">
@@ -3794,13 +3829,13 @@
         <v>44773</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -3811,10 +3846,10 @@
         <v>44688</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="8">
@@ -3824,13 +3859,13 @@
         <v>44773</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -3841,10 +3876,10 @@
         <v>44688</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="8">
@@ -3854,13 +3889,13 @@
         <v>44773</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -3871,10 +3906,10 @@
         <v>44688</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="8">
@@ -3884,13 +3919,13 @@
         <v>44773</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -3901,10 +3936,10 @@
         <v>44688</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="8">
@@ -3914,13 +3949,13 @@
         <v>44773</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -3931,10 +3966,10 @@
         <v>44688</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="8">
@@ -3944,14 +3979,14 @@
         <v>44773</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -3959,10 +3994,10 @@
         <v>44688</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="8">
@@ -3972,13 +4007,13 @@
         <v>44773</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -3989,10 +4024,10 @@
         <v>44688</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8">
@@ -4002,13 +4037,13 @@
         <v>44773</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -4019,13 +4054,13 @@
         <v>44659</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E82" s="8">
         <v>44652</v>
@@ -4035,10 +4070,10 @@
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -4049,10 +4084,10 @@
         <v>44688</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8">
@@ -4062,14 +4097,14 @@
         <v>44773</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4077,10 +4112,10 @@
         <v>44688</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="8">
@@ -4090,14 +4125,14 @@
         <v>44773</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4105,10 +4140,10 @@
         <v>44688</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="8">
@@ -4118,13 +4153,13 @@
         <v>44773</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -4135,10 +4170,10 @@
         <v>44688</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="8">
@@ -4148,13 +4183,13 @@
         <v>44773</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -4165,10 +4200,10 @@
         <v>44688</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8">
@@ -4178,14 +4213,14 @@
         <v>44773</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4193,10 +4228,10 @@
         <v>44688</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="8">
@@ -4206,13 +4241,13 @@
         <v>44773</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4223,10 +4258,10 @@
         <v>44688</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8">
@@ -4236,14 +4271,14 @@
         <v>44773</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="10" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4251,10 +4286,10 @@
         <v>44698</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8">
@@ -4264,14 +4299,14 @@
         <v>44773</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4279,13 +4314,13 @@
         <v>44688</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="E91" s="8">
         <v>44682</v>
@@ -4295,7 +4330,7 @@
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,13 +4342,13 @@
         <v>44707</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="E92" s="8">
         <v>44713</v>
@@ -4322,10 +4357,10 @@
         <v>44773</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,13 +4372,13 @@
         <v>44659</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E93" s="8">
         <v>44652</v>
@@ -4353,10 +4388,10 @@
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -4367,13 +4402,13 @@
         <v>44659</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E94" s="8">
         <v>44652</v>
@@ -4383,10 +4418,10 @@
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -4397,13 +4432,13 @@
         <v>44659</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E95" s="8">
         <v>44652</v>
@@ -4413,10 +4448,10 @@
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -4427,13 +4462,13 @@
         <v>44701</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="8">
@@ -4441,15 +4476,15 @@
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4457,13 +4492,13 @@
         <v>44707</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E97" s="8">
         <v>44713</v>
@@ -4472,10 +4507,10 @@
         <v>44773</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,13 +4522,13 @@
         <v>44701</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8">
@@ -4501,15 +4536,15 @@
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4517,13 +4552,13 @@
         <v>44701</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="8">
@@ -4531,15 +4566,15 @@
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4547,13 +4582,13 @@
         <v>44701</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="8">
@@ -4561,15 +4596,15 @@
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4577,10 +4612,10 @@
         <v>44659</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="8">
@@ -4595,7 +4630,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4603,13 +4638,13 @@
         <v>44701</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="8">
@@ -4617,15 +4652,15 @@
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4633,10 +4668,10 @@
         <v>44659</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D103" s="13">
         <v>72420619</v>
@@ -4649,10 +4684,10 @@
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -4663,13 +4698,13 @@
         <v>44659</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E104" s="8">
         <v>44652</v>
@@ -4679,10 +4714,10 @@
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -4693,13 +4728,13 @@
         <v>44701</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="8">
@@ -4707,15 +4742,15 @@
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4723,13 +4758,13 @@
         <v>44701</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="8">
@@ -4737,13 +4772,13 @@
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4751,13 +4786,13 @@
         <v>44701</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="8">
@@ -4765,15 +4800,15 @@
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4781,13 +4816,13 @@
         <v>44701</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="8">
@@ -4795,15 +4830,15 @@
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4811,13 +4846,13 @@
         <v>44701</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="8">
@@ -4825,15 +4860,15 @@
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4841,13 +4876,13 @@
         <v>44701</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="8">
@@ -4855,15 +4890,15 @@
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4871,13 +4906,13 @@
         <v>44701</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="8">
@@ -4885,13 +4920,13 @@
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4899,13 +4934,13 @@
         <v>44701</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="8">
@@ -4913,15 +4948,15 @@
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4929,13 +4964,13 @@
         <v>44701</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="8">
@@ -4943,15 +4978,15 @@
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4959,13 +4994,13 @@
         <v>44701</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="8">
@@ -4973,15 +5008,15 @@
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -4989,13 +5024,13 @@
         <v>44701</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="8">
@@ -5003,15 +5038,15 @@
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5019,10 +5054,10 @@
         <v>44688</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D116" s="9">
         <v>43014077</v>
@@ -5035,13 +5070,13 @@
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5049,10 +5084,10 @@
         <v>44701</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D117" s="9">
         <v>44494612</v>
@@ -5063,15 +5098,15 @@
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5079,10 +5114,10 @@
         <v>44701</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D118" s="9">
         <v>43030843</v>
@@ -5093,15 +5128,15 @@
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5109,13 +5144,13 @@
         <v>44701</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8">
@@ -5123,15 +5158,15 @@
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5139,13 +5174,13 @@
         <v>44701</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8">
@@ -5153,15 +5188,15 @@
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5169,10 +5204,10 @@
         <v>44659</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="8">
@@ -5183,13 +5218,13 @@
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5197,13 +5232,13 @@
         <v>44701</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="8">
@@ -5211,15 +5246,15 @@
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5227,13 +5262,13 @@
         <v>44701</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="8">
@@ -5241,15 +5276,15 @@
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5257,13 +5292,13 @@
         <v>44701</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8">
@@ -5271,15 +5306,15 @@
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5287,13 +5322,13 @@
         <v>44701</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="8">
@@ -5301,15 +5336,15 @@
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5317,13 +5352,13 @@
         <v>44701</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="8">
@@ -5331,15 +5366,15 @@
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5347,13 +5382,13 @@
         <v>44701</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="8">
@@ -5361,15 +5396,15 @@
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5377,10 +5412,10 @@
         <v>44677</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="8">
@@ -5390,14 +5425,14 @@
         <v>44773</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -5407,13 +5442,13 @@
         <v>44707</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E129" s="8">
         <v>44713</v>
@@ -5422,10 +5457,10 @@
         <v>44773</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5437,13 +5472,13 @@
         <v>44701</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="8">
@@ -5451,15 +5486,15 @@
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="20" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5467,10 +5502,10 @@
         <v>44707</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D131" s="9">
         <v>75132576</v>
@@ -5482,13 +5517,13 @@
         <v>44804</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -5499,13 +5534,13 @@
         <v>44707</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E132" s="8">
         <v>44713</v>
@@ -5514,10 +5549,10 @@
         <v>44773</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5529,13 +5564,13 @@
         <v>44707</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E133" s="8">
         <v>44713</v>
@@ -5544,10 +5579,10 @@
         <v>44773</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5559,10 +5594,10 @@
         <v>44707</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D134" s="9">
         <v>10810123</v>
@@ -5574,16 +5609,16 @@
         <v>44804</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5591,10 +5626,10 @@
         <v>44707</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D135" s="9">
         <v>78970473</v>
@@ -5606,13 +5641,13 @@
         <v>44804</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -5623,10 +5658,10 @@
         <v>44707</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D136" s="9">
         <v>48240872</v>
@@ -5638,16 +5673,16 @@
         <v>44804</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5655,10 +5690,10 @@
         <v>44688</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D137" s="9">
         <v>76001423</v>
@@ -5671,7 +5706,7 @@
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -5683,10 +5718,10 @@
         <v>44707</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D138" s="9">
         <v>4929395</v>
@@ -5694,14 +5729,14 @@
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5709,10 +5744,10 @@
         <v>44707</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D139" s="9">
         <v>76001423</v>
@@ -5724,10 +5759,10 @@
         <v>44773</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -5739,13 +5774,13 @@
         <v>44707</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E140" s="8">
         <v>44713</v>
@@ -5754,10 +5789,10 @@
         <v>44773</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -5769,10 +5804,10 @@
         <v>44707</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D141" s="9">
         <v>76138964</v>
@@ -5780,14 +5815,14 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="10" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -5795,10 +5830,10 @@
         <v>44677</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="8">
@@ -5808,14 +5843,14 @@
         <v>44773</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -5825,10 +5860,10 @@
         <v>44707</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D143" s="9">
         <v>60430388</v>
@@ -5840,13 +5875,13 @@
         <v>44804</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -5856,13 +5891,15 @@
       <c r="A144" s="8">
         <v>44663</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D144" s="9"/>
+      <c r="B144" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>363</v>
+      </c>
       <c r="E144" s="8">
         <v>44652</v>
       </c>
@@ -5870,14 +5907,14 @@
         <v>44742</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -5887,10 +5924,10 @@
         <v>44677</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="8">
@@ -5900,17 +5937,17 @@
         <v>44773</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L145" s="9"/>
     </row>
@@ -5919,13 +5956,13 @@
         <v>44707</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E146" s="8">
         <v>44713</v>
@@ -5934,10 +5971,10 @@
         <v>44773</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -5949,13 +5986,13 @@
         <v>44707</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E147" s="8">
         <v>44713</v>
@@ -5964,10 +6001,10 @@
         <v>44773</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -5979,10 +6016,10 @@
         <v>44707</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D148" s="13">
         <v>72420619</v>
@@ -5991,13 +6028,13 @@
         <v>44713</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6008,11 +6045,11 @@
       <c r="A149" s="8">
         <v>44663</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>46</v>
+      <c r="B149" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="8">
@@ -6022,10 +6059,10 @@
         <v>44742</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6037,13 +6074,13 @@
         <v>44707</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E150" s="8">
         <v>44713</v>
@@ -6052,18 +6089,18 @@
         <v>44773</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -6071,13 +6108,13 @@
         <v>44707</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E151" s="8">
         <v>44713</v>
@@ -6086,10 +6123,10 @@
         <v>44773</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
@@ -6101,10 +6138,10 @@
         <v>44707</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D152" s="9">
         <v>73494962</v>
@@ -6116,10 +6153,10 @@
         <v>44804</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6131,10 +6168,10 @@
         <v>44707</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D153" s="9">
         <v>72386048</v>
@@ -6146,10 +6183,10 @@
         <v>44804</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
@@ -6161,10 +6198,10 @@
         <v>44707</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D154" s="9">
         <v>62034807</v>
@@ -6176,14 +6213,14 @@
         <v>44773</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -6191,13 +6228,13 @@
         <v>44721</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="E155" s="8">
         <v>44713</v>
@@ -6206,7 +6243,7 @@
         <v>44803</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
@@ -6219,10 +6256,10 @@
         <v>44677</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="8">
@@ -6232,38 +6269,40 @@
         <v>44773</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
     </row>
     <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
-        <v>44698</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>175</v>
+        <v>44663</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="8">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="F157" s="8">
         <v>44742</v>
       </c>
-      <c r="G157" s="9"/>
+      <c r="G157" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H157" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -6275,13 +6314,13 @@
         <v>44707</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E158" s="8">
         <v>44713</v>
@@ -6290,25 +6329,25 @@
         <v>44773</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>44721</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D159" s="9">
         <v>78257845</v>
@@ -6320,10 +6359,10 @@
         <v>44773</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -6335,13 +6374,13 @@
         <v>44707</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E160" s="8">
         <v>44713</v>
@@ -6350,10 +6389,10 @@
         <v>44773</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
@@ -6365,40 +6404,40 @@
         <v>44707</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E161" s="8">
         <v>44713</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
-        <v>44659</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>5</v>
+        <v>44663</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="8">
@@ -6407,9 +6446,11 @@
       <c r="F162" s="8">
         <v>44742</v>
       </c>
-      <c r="G162" s="8"/>
+      <c r="G162" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H162" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
@@ -6421,13 +6462,13 @@
         <v>44707</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E163" s="8">
         <v>44713</v>
@@ -6436,10 +6477,10 @@
         <v>44773</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
@@ -6451,13 +6492,13 @@
         <v>44707</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E164" s="8">
         <v>44713</v>
@@ -6466,43 +6507,39 @@
         <v>44773</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
-        <v>44663</v>
+        <v>44698</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="8">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F165" s="8">
         <v>44742</v>
       </c>
-      <c r="G165" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="G165" s="9"/>
       <c r="H165" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I165" s="9"/>
-      <c r="J165" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
     </row>
@@ -6511,10 +6548,10 @@
         <v>44670</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="8">
@@ -6524,14 +6561,14 @@
         <v>44773</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
@@ -6541,13 +6578,13 @@
         <v>44721</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E167" s="8">
         <v>44713</v>
@@ -6556,10 +6593,10 @@
         <v>44773</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I167" s="14"/>
       <c r="J167" s="14"/>
@@ -6571,13 +6608,13 @@
         <v>44721</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E168" s="8">
         <v>44713</v>
@@ -6586,7 +6623,7 @@
         <v>44803</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
@@ -6599,13 +6636,13 @@
         <v>44707</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E169" s="8">
         <v>44713</v>
@@ -6614,10 +6651,10 @@
         <v>44773</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
@@ -6629,13 +6666,13 @@
         <v>44707</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E170" s="8">
         <v>44713</v>
@@ -6644,10 +6681,10 @@
         <v>44804</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
@@ -6659,13 +6696,13 @@
         <v>44707</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E171" s="8">
         <v>44713</v>
@@ -6674,10 +6711,10 @@
         <v>44773</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
@@ -6689,13 +6726,13 @@
         <v>44721</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E172" s="8">
         <v>44713</v>
@@ -6704,7 +6741,7 @@
         <v>44803</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
@@ -6717,13 +6754,13 @@
         <v>44707</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E173" s="8">
         <v>44713</v>
@@ -6732,10 +6769,10 @@
         <v>44773</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
@@ -6747,13 +6784,13 @@
         <v>44707</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E174" s="8">
         <v>44713</v>
@@ -6762,10 +6799,10 @@
         <v>44773</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
@@ -6777,10 +6814,10 @@
         <v>44670</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="8">
@@ -6790,10 +6827,10 @@
         <v>44773</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
@@ -6805,10 +6842,10 @@
         <v>44670</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="8">
@@ -6819,7 +6856,7 @@
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
@@ -6831,10 +6868,10 @@
         <v>44707</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D177" s="9">
         <v>44494612</v>
@@ -6844,14 +6881,14 @@
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -6859,13 +6896,13 @@
         <v>44721</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E178" s="8">
         <v>44713</v>
@@ -6874,7 +6911,7 @@
         <v>44803</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
@@ -6887,10 +6924,10 @@
         <v>44707</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D179" s="9">
         <v>43030843</v>
@@ -6902,10 +6939,10 @@
         <v>44773</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
@@ -6917,13 +6954,13 @@
         <v>44707</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E180" s="8">
         <v>44713</v>
@@ -6932,10 +6969,10 @@
         <v>44773</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
@@ -6947,13 +6984,13 @@
         <v>44707</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E181" s="8">
         <v>44713</v>
@@ -6962,10 +6999,10 @@
         <v>44773</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
@@ -6977,13 +7014,13 @@
         <v>44721</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E182" s="8">
         <v>44713</v>
@@ -6992,10 +7029,10 @@
         <v>44773</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -7007,13 +7044,13 @@
         <v>44721</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E183" s="8">
         <v>44713</v>
@@ -7022,7 +7059,7 @@
         <v>44803</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
@@ -7035,10 +7072,10 @@
         <v>44707</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D184" s="9">
         <v>75240532</v>
@@ -7050,10 +7087,10 @@
         <v>44804</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
@@ -7065,13 +7102,13 @@
         <v>44721</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E185" s="8">
         <v>44713</v>
@@ -7080,7 +7117,7 @@
         <v>44803</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
@@ -7093,10 +7130,10 @@
         <v>44707</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D186" s="9">
         <v>40729276</v>
@@ -7108,10 +7145,10 @@
         <v>44804</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
@@ -7123,13 +7160,13 @@
         <v>44707</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E187" s="8">
         <v>44713</v>
@@ -7138,10 +7175,10 @@
         <v>44773</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
@@ -7153,13 +7190,13 @@
         <v>44707</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E188" s="8">
         <v>44713</v>
@@ -7168,10 +7205,10 @@
         <v>44773</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
@@ -7180,13 +7217,13 @@
     </row>
     <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
-        <v>44663</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>48</v>
+        <v>44659</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="8">
@@ -7195,16 +7232,12 @@
       <c r="F189" s="8">
         <v>44742</v>
       </c>
-      <c r="G189" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="G189" s="8"/>
       <c r="H189" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I189" s="9"/>
-      <c r="J189" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
     </row>
@@ -7213,10 +7246,10 @@
         <v>44707</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D190" s="9">
         <v>74430537</v>
@@ -7228,10 +7261,10 @@
         <v>44804</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
@@ -7243,13 +7276,13 @@
         <v>44707</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E191" s="8">
         <v>44713</v>
@@ -7258,10 +7291,10 @@
         <v>44773</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
@@ -7273,13 +7306,13 @@
         <v>44707</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E192" s="8">
         <v>44713</v>
@@ -7288,10 +7321,10 @@
         <v>44773</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
@@ -7302,11 +7335,11 @@
       <c r="A193" s="8">
         <v>44663</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>17</v>
+      <c r="B193" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="8">
@@ -7315,12 +7348,16 @@
       <c r="F193" s="8">
         <v>44742</v>
       </c>
-      <c r="G193" s="9"/>
+      <c r="G193" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H193" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I193" s="9"/>
-      <c r="J193" s="9"/>
+      <c r="J193" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
     </row>
@@ -7328,11 +7365,11 @@
       <c r="A194" s="8">
         <v>44663</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>34</v>
+      <c r="B194" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="8">
@@ -7341,11 +7378,9 @@
       <c r="F194" s="8">
         <v>44742</v>
       </c>
-      <c r="G194" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="G194" s="9"/>
       <c r="H194" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
@@ -7357,13 +7392,13 @@
         <v>44707</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E195" s="8">
         <v>44713</v>
@@ -7372,10 +7407,10 @@
         <v>44773</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
@@ -7387,13 +7422,13 @@
         <v>44707</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E196" s="8">
         <v>44713</v>
@@ -7402,10 +7437,10 @@
         <v>44773</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
@@ -7417,10 +7452,10 @@
         <v>44677</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="8">
@@ -7430,10 +7465,10 @@
         <v>44773</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
@@ -7445,13 +7480,13 @@
         <v>44721</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E198" s="8">
         <v>44713</v>
@@ -7460,14 +7495,14 @@
         <v>44803</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
       <c r="J198" s="14"/>
       <c r="K198" s="14"/>
       <c r="L198" s="21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -7475,10 +7510,10 @@
         <v>44659</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D199" s="9">
         <v>77154249</v>
@@ -7491,7 +7526,7 @@
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
@@ -7503,10 +7538,10 @@
         <v>44707</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D200" s="9">
         <v>77154249</v>
@@ -7518,10 +7553,10 @@
         <v>44773</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
@@ -7533,10 +7568,10 @@
         <v>44688</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D201" s="13">
         <v>73827945</v>
@@ -7549,7 +7584,7 @@
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
@@ -7561,10 +7596,10 @@
         <v>44707</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D202" s="13">
         <v>73827945</v>
@@ -7576,16 +7611,16 @@
         <v>44773</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -7593,13 +7628,13 @@
         <v>44707</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E203" s="8">
         <v>44713</v>
@@ -7608,10 +7643,10 @@
         <v>44773</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
@@ -7622,11 +7657,11 @@
       <c r="A204" s="8">
         <v>44663</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>15</v>
+      <c r="B204" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="8">
@@ -7636,14 +7671,14 @@
         <v>44742</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I204" s="9"/>
       <c r="J204" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
@@ -7653,10 +7688,10 @@
         <v>44677</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="8">
@@ -7666,14 +7701,14 @@
         <v>44773</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I205" s="9"/>
       <c r="J205" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
@@ -9682,11 +9717,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:L205" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
-    <filterColumn colId="1">
+    <filterColumn colId="5">
       <filters>
-        <filter val="MURAYARI CUMAPA"/>
+        <dateGroupItem year="2022" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:L204">
+      <sortCondition ref="L3:L205"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
+++ b/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\3-CONTRATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC5D6C-1A72-4120-97BC-353B572144A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05C515-365A-41FC-ADEB-60F987596376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01262143-0549-49C8-B69B-962DDF4BCAC1}"/>
   </bookViews>
@@ -1656,13 +1656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I209" sqref="I209"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44701</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44659</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44659</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44701</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44670</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44659</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44701</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44707</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44701</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44721</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44707</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44659</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44701</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44670</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44659</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44721</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44659</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>44707</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44670</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>44707</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>44707</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>44707</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44659</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>44688</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>44707</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>44659</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44707</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>44670</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>44670</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>44707</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44707</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44688</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44670</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44670</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44677</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44707</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44659</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44659</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>44677</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>44707</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>44677</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>44677</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>44707</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>44677</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>44677</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>44707</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>44688</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>44688</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44688</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>44688</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>44688</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>44688</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>44688</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>44688</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>44688</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44663</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>44688</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>44688</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>44688</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>44721</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>44688</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>44688</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>44688</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>44688</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>44688</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>44688</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>44688</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>44688</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>44659</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>44688</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44688</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44688</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44688</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44688</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>44688</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>44688</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>44698</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>44688</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>44707</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44659</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>44659</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>44659</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>44701</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>44707</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>44701</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>44701</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44701</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>44659</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>44701</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>44659</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>44659</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>44701</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>44701</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>44701</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>44701</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>44701</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>44701</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>44701</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>44701</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>44701</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>44701</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>44701</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>44688</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>44701</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>44701</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>44701</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>44701</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>44659</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>44701</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>44701</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>44701</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>44701</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>44701</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>44701</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>44677</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>44707</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>44701</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>44707</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>44707</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>44707</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>44707</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>44707</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>44707</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>44688</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>44707</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>44707</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>44707</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>44707</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>44677</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>44707</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>44663</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>44677</v>
       </c>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>44707</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>44707</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>44707</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>44663</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>44707</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>44707</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>44707</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>44707</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>44707</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>44721</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>44677</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>44663</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>44707</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>44721</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="K159" s="14"/>
       <c r="L159" s="14"/>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>44707</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>44707</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>44663</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>44707</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>44707</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>44698</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>44670</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>44721</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="K167" s="14"/>
       <c r="L167" s="14"/>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>44721</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>44707</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>44707</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>44707</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <v>44721</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>44707</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>44707</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>44670</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>44670</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>44707</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>44721</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>44707</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>44707</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>44707</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>44721</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>44721</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>44707</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>44721</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>44707</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>44707</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>44707</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>44659</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>44707</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>44707</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>44707</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>44663</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>44663</v>
       </c>
@@ -7387,7 +7387,7 @@
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>44707</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>44707</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>44677</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>44721</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>44659</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>44707</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>44688</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>44707</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>44707</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>44663</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>44677</v>
       </c>
@@ -9717,16 +9717,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:L205" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2022" month="6" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:L204">
       <sortCondition ref="L3:L205"/>
     </sortState>

--- a/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
+++ b/2-PERSONAL/3-CONTRATOS/AKM-CONTRATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\3-CONTRATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05C515-365A-41FC-ADEB-60F987596376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452F7CB-B8DA-452B-A192-97B7C491E40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01262143-0549-49C8-B69B-962DDF4BCAC1}"/>
   </bookViews>
@@ -1656,13 +1656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44701</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44659</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44659</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44701</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44663</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44670</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44659</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44701</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44707</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44701</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>44721</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44707</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44659</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44701</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44670</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44659</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44663</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44721</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44663</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44663</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44659</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44663</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>44707</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>44663</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44670</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>44707</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>44663</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>44707</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>44707</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44659</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>44688</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>44663</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>44663</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>44663</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>44707</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>44659</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44707</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>44670</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>44670</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>44707</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44707</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44688</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44670</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44670</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44677</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44707</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44659</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44659</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>44677</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>44707</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>44677</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>44677</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>44707</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>44677</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>44677</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>44707</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>44688</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>44688</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44688</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>44688</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>44688</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>44688</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>44688</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>44688</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>44688</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44663</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>44688</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>44688</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>44688</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>44721</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>44688</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>44688</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>44688</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>44688</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>44688</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>44688</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>44688</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>44688</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>44659</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>44688</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44688</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44688</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44688</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44688</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>44688</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>44688</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>44698</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>44688</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>44707</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44659</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>44659</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>44659</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>44701</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>44707</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>44701</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>44701</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44701</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>44659</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>44701</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>44659</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>44659</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>44701</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>44701</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>44701</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>44701</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>44701</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>44701</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>44701</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>44701</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>44701</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>44701</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>44701</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>44688</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>44701</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>44701</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>44701</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>44701</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>44659</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>44701</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>44701</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>44701</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>44701</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>44701</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>44701</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>44677</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>44707</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>44701</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>44707</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>44707</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>44707</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>44707</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>44707</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>44707</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>44688</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>44707</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>44707</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>44707</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>44707</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>44677</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>44707</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>44663</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>44677</v>
       </c>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>44707</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>44707</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>44707</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>44663</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>44707</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>44707</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>44707</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>44707</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>44707</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>44721</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>44677</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>44663</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>44707</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>44721</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="K159" s="14"/>
       <c r="L159" s="14"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>44707</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>44707</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>44663</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>44707</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>44707</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>44698</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>44670</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>44721</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="K167" s="14"/>
       <c r="L167" s="14"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>44721</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>44707</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>44707</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>44707</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <v>44721</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="K172" s="14"/>
       <c r="L172" s="14"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>44707</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>44707</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>44670</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>44670</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>44707</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>44721</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>44707</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>44707</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>44707</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>44721</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>44721</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>44707</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>44721</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>44707</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>44707</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>44707</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>44659</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>44707</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>44707</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>44707</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>44663</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>44663</v>
       </c>
@@ -7387,7 +7387,7 @@
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>44707</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>44707</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>44677</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>44721</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>44659</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>44707</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>44707</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>44663</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>44677</v>
       </c>
@@ -9717,6 +9717,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:L205" xr:uid="{D734053D-7823-441B-A821-135DBB66E4BB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VILLAZANA CASTILLON"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:L204">
       <sortCondition ref="L3:L205"/>
     </sortState>
